--- a/artifact/data/web-05.data.xlsx
+++ b/artifact/data/web-05.data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10723"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3595D929-648B-E548-93C4-75A384EEC0D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361E04EC-E653-944B-AF20-C30E7C72A226}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="440" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="440" windowWidth="25600" windowHeight="7840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
+    <sheet name="hello-world" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="base">'[1]#system'!$B$2:$B$24</definedName>
@@ -36,7 +37,7 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,42 +50,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>800</t>
-  </si>
-  <si>
     <t>,</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>nexial.scope.fallbackToPrevious</t>
+  </si>
+  <si>
+    <t>nexial.pollWaitMs</t>
+  </si>
+  <si>
+    <t>nexial.failFast</t>
+  </si>
+  <si>
+    <t>nexial.textDelim</t>
+  </si>
+  <si>
+    <t>nexial.verbose</t>
+  </si>
+  <si>
+    <t>nexial.openResult</t>
+  </si>
+  <si>
+    <t>aut : url</t>
+  </si>
+  <si>
+    <t>aut : title</t>
+  </si>
+  <si>
+    <t>"Hello, World!" program - Wikipedia</t>
+  </si>
+  <si>
+    <t>aut : copyRight</t>
+  </si>
+  <si>
+    <t>Text is available under the Creative Commons Attribution-ShareAlike License; additional terms may apply.</t>
+  </si>
+  <si>
+    <t>aut : keyword</t>
+  </si>
+  <si>
+    <t>Hello World</t>
+  </si>
+  <si>
+    <t>newline : url</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Newline</t>
+  </si>
+  <si>
+    <t>Newline - Wikipedia</t>
+  </si>
+  <si>
+    <t>newline : title</t>
+  </si>
+  <si>
+    <t>newline : excerpt</t>
+  </si>
+  <si>
+    <t>U+2424 (SYMBOL FOR NEWLINE, ␤), U+23CE (RETURN SYMBOL, ⏎), U+240D (SYMBOL FOR CARRIAGE RETURN, ␍) and U+240A (SYMBOL FOR LINE FEED, ␊)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/%22Hello,_World!%22_program</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>nexial.scope.iteration</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>nexial.scope.fallbackToPrevious</t>
-  </si>
-  <si>
-    <t>nexial.scope.iteration</t>
-  </si>
-  <si>
-    <t>nexial.pollWaitMs</t>
-  </si>
-  <si>
-    <t>nexial.failFast</t>
-  </si>
-  <si>
-    <t>nexial.textDelim</t>
-  </si>
-  <si>
-    <t>nexial.verbose</t>
-  </si>
-  <si>
-    <t>nexial.openResult</t>
+    <t>//nexial.browser</t>
+  </si>
+  <si>
+    <t>//nexial.highlightWaitMs</t>
+  </si>
+  <si>
+    <t>//nexial.highlight</t>
   </si>
 </sst>
 </file>
@@ -213,7 +271,72 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -568,7 +691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA10"/>
+  <dimension ref="A1:AAA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -585,7 +708,7 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -595,37 +718,37 @@
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="HA3" s="6"/>
-      <c r="AAA3" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -635,17 +758,17 @@
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -654,6 +777,12 @@
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
@@ -661,9 +790,138 @@
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
-    <row r="10" spans="1:703">
-      <c r="HA10" s="4"/>
-      <c r="AAA10" s="5"/>
+  </sheetData>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02992098-561F-1944-A340-34CB95735B3B}">
+  <dimension ref="A1:AAA9"/>
+  <sheetViews>
+    <sheetView zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="34" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="HA2" s="6"/>
+      <c r="AAA2" s="6"/>
+    </row>
+    <row r="3" spans="1:703">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="1:703">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="1:703">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="HA7" s="4"/>
+      <c r="AAA7" s="5"/>
+    </row>
+    <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="HA8" s="4"/>
+      <c r="AAA8" s="5"/>
+    </row>
+    <row r="9" spans="1:703">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="HA9" s="4"/>
+      <c r="AAA9" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>

--- a/artifact/data/web-05.data.xlsx
+++ b/artifact/data/web-05.data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10904"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361E04EC-E653-944B-AF20-C30E7C72A226}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0182D7-D7FB-6E44-8F8E-471ED1CA4B66}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="440" windowWidth="25600" windowHeight="7840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="34600" windowHeight="17620" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
-    <sheet name="hello-world" sheetId="3" r:id="rId2"/>
+    <sheet name="locators-xpath" sheetId="8" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>true</t>
   </si>
@@ -79,54 +79,6 @@
     <t>nexial.openResult</t>
   </si>
   <si>
-    <t>aut : url</t>
-  </si>
-  <si>
-    <t>aut : title</t>
-  </si>
-  <si>
-    <t>"Hello, World!" program - Wikipedia</t>
-  </si>
-  <si>
-    <t>aut : copyRight</t>
-  </si>
-  <si>
-    <t>Text is available under the Creative Commons Attribution-ShareAlike License; additional terms may apply.</t>
-  </si>
-  <si>
-    <t>aut : keyword</t>
-  </si>
-  <si>
-    <t>Hello World</t>
-  </si>
-  <si>
-    <t>newline : url</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Newline</t>
-  </si>
-  <si>
-    <t>Newline - Wikipedia</t>
-  </si>
-  <si>
-    <t>newline : title</t>
-  </si>
-  <si>
-    <t>newline : excerpt</t>
-  </si>
-  <si>
-    <t>U+2424 (SYMBOL FOR NEWLINE, ␤), U+23CE (RETURN SYMBOL, ⏎), U+240D (SYMBOL FOR CARRIAGE RETURN, ␍) and U+240A (SYMBOL FOR LINE FEED, ␊)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/%22Hello,_World!%22_program</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>250</t>
   </si>
   <si>
@@ -136,13 +88,217 @@
     <t>1</t>
   </si>
   <si>
-    <t>//nexial.browser</t>
-  </si>
-  <si>
-    <t>//nexial.highlightWaitMs</t>
-  </si>
-  <si>
-    <t>//nexial.highlight</t>
+    <t>http://the-internet.herokuapp.com/tables</t>
+  </si>
+  <si>
+    <t>aut.example1.heading.loc</t>
+  </si>
+  <si>
+    <t>aut.example1.heading.text</t>
+  </si>
+  <si>
+    <t>Last Name,First Name,Email,Due,Web Site,Action</t>
+  </si>
+  <si>
+    <t>aut.example1.content.loc</t>
+  </si>
+  <si>
+    <t>//table[@id='table1']</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/example1.csv</t>
+  </si>
+  <si>
+    <t>$(syspath|data|fullpath)/web-03-example1.csv</t>
+  </si>
+  <si>
+    <t>//table[@id='example']</t>
+  </si>
+  <si>
+    <t>aut.example2.heading.loc</t>
+  </si>
+  <si>
+    <t>aut.example2.heading.text</t>
+  </si>
+  <si>
+    <t>aut.example2.heading.Office.loc</t>
+  </si>
+  <si>
+    <t>aut.example2.url</t>
+  </si>
+  <si>
+    <t>https://datatables.net/examples/ajax/orthogonal-data.html</t>
+  </si>
+  <si>
+    <t>aut.example1.url</t>
+  </si>
+  <si>
+    <t>aut.example1.content.expected</t>
+  </si>
+  <si>
+    <t>aut.example1.content.saveTo</t>
+  </si>
+  <si>
+    <t>aut.example1.loc</t>
+  </si>
+  <si>
+    <t>${aut.example2.loc}//thead//th</t>
+  </si>
+  <si>
+    <t>xpath=${aut.example1.loc}//tbody//td</t>
+  </si>
+  <si>
+    <t>${aut.example1.loc}//thead//span</t>
+  </si>
+  <si>
+    <t>aut.example2.loc</t>
+  </si>
+  <si>
+    <t>aut.example2.content.loc</t>
+  </si>
+  <si>
+    <t>aut.example2.content.expected</t>
+  </si>
+  <si>
+    <t>xpath=${aut.example2.loc}//tbody//td</t>
+  </si>
+  <si>
+    <t>$(syspath|data|fullpath)/web-03-example2.csv</t>
+  </si>
+  <si>
+    <t>aut.example2.next.loc</t>
+  </si>
+  <si>
+    <t>//a[@id='example_next']</t>
+  </si>
+  <si>
+    <t>aut.example2.content.saveTo</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/example2.csv</t>
+  </si>
+  <si>
+    <t>Name,Position,Office,Extn.,Start date,Salary</t>
+  </si>
+  <si>
+    <t>${aut.example2.loc}//thead//th[text()='Office']</t>
+  </si>
+  <si>
+    <t>aut.example3.url</t>
+  </si>
+  <si>
+    <t>aut.example3.content.expected</t>
+  </si>
+  <si>
+    <t>aut.example3.content.loc</t>
+  </si>
+  <si>
+    <t>aut.example3.heading.loc</t>
+  </si>
+  <si>
+    <t>aut.example3.content.saveTo</t>
+  </si>
+  <si>
+    <t>aut.example3.heading.text</t>
+  </si>
+  <si>
+    <t>aut.example3.loc</t>
+  </si>
+  <si>
+    <t>aut.example3.next.loc</t>
+  </si>
+  <si>
+    <t>https://material.angular.io/components/table/overview</t>
+  </si>
+  <si>
+    <t>$(syspath|data|fullpath)/web-03-example3.csv</t>
+  </si>
+  <si>
+    <t>xpath=${aut.example3.loc}//tbody//td</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/example3.csv</t>
+  </si>
+  <si>
+    <t>${aut.example3.loc}//thead//th</t>
+  </si>
+  <si>
+    <t>${aut.example3.loc}//thead//th[text()='Symbol']</t>
+  </si>
+  <si>
+    <t>No.,Name,Weight,Symbol</t>
+  </si>
+  <si>
+    <t>//button[contains(@class,'mat-paginator-navigation-next')]</t>
+  </si>
+  <si>
+    <t>aut.example3.heading.Symbol.loc</t>
+  </si>
+  <si>
+    <t>//div[@material-docs-example="table-pagination"]//table[contains(@class,'mat-table')]</t>
+  </si>
+  <si>
+    <t>nexial.highlight</t>
+  </si>
+  <si>
+    <t>nexial.highlightWaitMs</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>nexial.browser</t>
+  </si>
+  <si>
+    <t>nexial.browserstack.username</t>
+  </si>
+  <si>
+    <t>nexial.browserstack.automatekey</t>
+  </si>
+  <si>
+    <t>nexial.browserstack.enablelocal</t>
+  </si>
+  <si>
+    <t>nexial.browserstack.browser</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>nexial.browserstack.browser.version</t>
+  </si>
+  <si>
+    <t>nexial.browserstack.debug</t>
+  </si>
+  <si>
+    <t>nexial.browserstack.resolution</t>
+  </si>
+  <si>
+    <t>1280x1024</t>
+  </si>
+  <si>
+    <t>nexial.browserstack.os</t>
+  </si>
+  <si>
+    <t>WINDOWS</t>
+  </si>
+  <si>
+    <t>nexial.browserstack.os.version</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>crypt:b4b1e892023a8af508a8d3d5a58559b019156556e02685843ffb1e0e64f4ae11</t>
+  </si>
+  <si>
+    <t>browserstack.use_w3c</t>
+  </si>
+  <si>
+    <t>crypt:a83bd52131dfd84aa6d410ab8dfd5956262855ad37c317be</t>
+  </si>
+  <si>
+    <t>browserstack</t>
   </si>
 </sst>
 </file>
@@ -271,7 +427,174 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -691,15 +1014,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA9"/>
+  <dimension ref="A1:AAA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="34" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="27.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="27" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
     <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
@@ -718,97 +1041,170 @@
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="HA3" s="4"/>
-      <c r="AAA3" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="HA3" s="6"/>
+      <c r="AAA3" s="6"/>
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
     <row r="9" spans="1:703">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
+    <row r="10" spans="1:703">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:703">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:703">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:703">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:703">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:703">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:703">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+  <conditionalFormatting sqref="A1 A3:A9 A22:A1048576">
+    <cfRule type="beginsWith" dxfId="22" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="21" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="B1 B3:B9 B22:B1048576">
+    <cfRule type="expression" dxfId="19" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="10">
       <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="beginsWith" dxfId="17" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A2,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="16" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A2,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="15" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="13" priority="5">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -817,17 +1213,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02992098-561F-1944-A340-34CB95735B3B}">
-  <dimension ref="A1:AAA9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938A5DF5-858F-F04F-A650-D78F3893CC59}">
+  <dimension ref="A1:AAA36"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="192" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="34" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="103.1640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
     <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
@@ -835,40 +1231,40 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="HA3" s="4"/>
-      <c r="AAA3" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="HA3" s="6"/>
+      <c r="AAA3" s="6"/>
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
@@ -885,7 +1281,7 @@
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -895,53 +1291,301 @@
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
     <row r="9" spans="1:703">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
+    <row r="10" spans="1:703">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="HA10" s="4"/>
+      <c r="AAA10" s="5"/>
+    </row>
+    <row r="11" spans="1:703">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:703">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:703">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:703">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+  <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sortState ref="A1:B25">
+    <sortCondition ref="A1:A25"/>
+  </sortState>
+  <conditionalFormatting sqref="A15:A1048576">
+    <cfRule type="beginsWith" dxfId="12" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="11" priority="10" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A15,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="10" priority="11" stopIfTrue="1">
+      <formula>LEN(TRIM(A15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B1048576 B13:B14">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="8" priority="13">
+      <formula>LEN(TRIM(B13))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A13">
+    <cfRule type="beginsWith" dxfId="7" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="6" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:B13">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="8">
       <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A14,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A14,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/artifact/data/web-05.data.xlsx
+++ b/artifact/data/web-05.data.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0182D7-D7FB-6E44-8F8E-471ED1CA4B66}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3DAB8D-0389-2C4B-BF62-9D0A12016864}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="34600" windowHeight="17620" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="15780" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
     <sheet name="locators-xpath" sheetId="8" r:id="rId2"/>
+    <sheet name="locators-xpath-android" sheetId="10" r:id="rId3"/>
+    <sheet name="locators-xpath-iphone" sheetId="11" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="base">'[1]#system'!$B$2:$B$24</definedName>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="95">
   <si>
     <t>true</t>
   </si>
@@ -299,6 +301,42 @@
   </si>
   <si>
     <t>browserstack</t>
+  </si>
+  <si>
+    <t>browserstack.local</t>
+  </si>
+  <si>
+    <t>ANDROID</t>
+  </si>
+  <si>
+    <t>browserstack.os</t>
+  </si>
+  <si>
+    <t>browserstack.os_version</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>browserstack.device</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S8</t>
+  </si>
+  <si>
+    <t>browserstack.real_mobile</t>
+  </si>
+  <si>
+    <t>browserstack.debug</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>iPhone X</t>
   </si>
 </sst>
 </file>
@@ -427,7 +465,341 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="49">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1170,40 +1542,40 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1 A3:A9 A22:A1048576">
-    <cfRule type="beginsWith" dxfId="22" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="48" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="21" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="47" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="20" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B3:B9 B22:B1048576">
-    <cfRule type="expression" dxfId="19" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="18" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="10">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="beginsWith" dxfId="17" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="43" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A2,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="42" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A2,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="13" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="5">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1216,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938A5DF5-858F-F04F-A650-D78F3893CC59}">
   <dimension ref="A1:AAA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="192" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A9" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1540,6 +1912,752 @@
     <sortCondition ref="A1:A25"/>
   </sortState>
   <conditionalFormatting sqref="A15:A1048576">
+    <cfRule type="beginsWith" dxfId="38" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="37" priority="10" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A15,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="36" priority="11" stopIfTrue="1">
+      <formula>LEN(TRIM(A15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B1048576 B13:B14">
+    <cfRule type="expression" dxfId="35" priority="12" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="34" priority="13">
+      <formula>LEN(TRIM(B13))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A13">
+    <cfRule type="beginsWith" dxfId="33" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="32" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="31" priority="6" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B13">
+    <cfRule type="expression" dxfId="30" priority="7" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="29" priority="8">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="beginsWith" dxfId="28" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A14,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="27" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A14,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="26" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362E671B-3266-D74C-A30E-0914D60258CD}">
+  <dimension ref="A1:AAA35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="32" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="103.1640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="HA2" s="6"/>
+      <c r="AAA2" s="6"/>
+    </row>
+    <row r="3" spans="1:703">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="HA3" s="6"/>
+      <c r="AAA3" s="6"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="1:703">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="1:703">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="HA7" s="4"/>
+      <c r="AAA7" s="5"/>
+    </row>
+    <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="HA8" s="4"/>
+      <c r="AAA8" s="5"/>
+    </row>
+    <row r="9" spans="1:703">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="HA9" s="4"/>
+      <c r="AAA9" s="5"/>
+    </row>
+    <row r="10" spans="1:703">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="HA10" s="4"/>
+      <c r="AAA10" s="5"/>
+    </row>
+    <row r="11" spans="1:703">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:703">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:703">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:703">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A15:A1048576">
+    <cfRule type="beginsWith" dxfId="25" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="24" priority="10" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A15,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="23" priority="11" stopIfTrue="1">
+      <formula>LEN(TRIM(A15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:B14 B16:B1048576">
+    <cfRule type="expression" dxfId="22" priority="12" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="21" priority="13">
+      <formula>LEN(TRIM(B13))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A13">
+    <cfRule type="beginsWith" dxfId="20" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="19" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="18" priority="6" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B13">
+    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="16" priority="8">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="beginsWith" dxfId="15" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A14,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="14" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A14,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="13" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57C66B0-9463-6444-930B-B99E0CDBA23F}">
+  <dimension ref="A1:AAA35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B35" sqref="A29:B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="32" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="103.1640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="HA2" s="6"/>
+      <c r="AAA2" s="6"/>
+    </row>
+    <row r="3" spans="1:703">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="HA3" s="6"/>
+      <c r="AAA3" s="6"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="1:703">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="1:703">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="HA7" s="4"/>
+      <c r="AAA7" s="5"/>
+    </row>
+    <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="HA8" s="4"/>
+      <c r="AAA8" s="5"/>
+    </row>
+    <row r="9" spans="1:703">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="HA9" s="4"/>
+      <c r="AAA9" s="5"/>
+    </row>
+    <row r="10" spans="1:703">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="HA10" s="4"/>
+      <c r="AAA10" s="5"/>
+    </row>
+    <row r="11" spans="1:703">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:703">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:703">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:703">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A15:A1048576">
     <cfRule type="beginsWith" dxfId="12" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
@@ -1550,7 +2668,7 @@
       <formula>LEN(TRIM(A15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B1048576 B13:B14">
+  <conditionalFormatting sqref="B13:B14 B16:B1048576">
     <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>

--- a/artifact/data/web-05.data.xlsx
+++ b/artifact/data/web-05.data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3DAB8D-0389-2C4B-BF62-9D0A12016864}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C149C2-1327-D149-B627-8504B6D7FB96}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="15780" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="15780" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -343,7 +343,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -389,6 +389,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -431,7 +437,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -452,6 +458,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1588,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938A5DF5-858F-F04F-A650-D78F3893CC59}">
   <dimension ref="A1:AAA36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1849,8 +1859,8 @@
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>2</v>
+      <c r="B29" s="7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1969,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362E671B-3266-D74C-A30E-0914D60258CD}">
   <dimension ref="A1:AAA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A11" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2285,51 +2295,51 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="beginsWith" dxfId="25" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="25" priority="11" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="10" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="24" priority="12" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A15,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="23" priority="11" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(A15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B14 B16:B1048576">
-    <cfRule type="expression" dxfId="22" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="21" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="15">
       <formula>LEN(TRIM(B13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A13">
-    <cfRule type="beginsWith" dxfId="20" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="20" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="19" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="18" priority="6" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13">
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="16" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="10">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="beginsWith" dxfId="15" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="15" priority="3" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A14,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="14" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="14" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A14,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="13" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="5" stopIfTrue="1">
       <formula>LEN(TRIM(A14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2343,7 +2353,7 @@
   <dimension ref="A1:AAA35"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B35" sqref="A29:B35"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2658,51 +2668,51 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="beginsWith" dxfId="12" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="12" priority="11" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="11" priority="10" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="11" priority="12" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A15,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(A15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B14 B16:B1048576">
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="14" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="8" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="15">
       <formula>LEN(TRIM(B13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A13">
-    <cfRule type="beginsWith" dxfId="7" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="7" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="6" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13">
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="10">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A14,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="1" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A14,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5" stopIfTrue="1">
       <formula>LEN(TRIM(A14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/artifact/data/web-05.data.xlsx
+++ b/artifact/data/web-05.data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C149C2-1327-D149-B627-8504B6D7FB96}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDCB93E-8FF2-BB40-AF7C-A42D79303009}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="15780" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29000" yWindow="440" windowWidth="22200" windowHeight="17260" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="93">
   <si>
     <t>true</t>
   </si>
@@ -252,12 +252,6 @@
     <t>nexial.browser</t>
   </si>
   <si>
-    <t>nexial.browserstack.username</t>
-  </si>
-  <si>
-    <t>nexial.browserstack.automatekey</t>
-  </si>
-  <si>
     <t>nexial.browserstack.enablelocal</t>
   </si>
   <si>
@@ -291,15 +285,9 @@
     <t>8</t>
   </si>
   <si>
-    <t>crypt:b4b1e892023a8af508a8d3d5a58559b019156556e02685843ffb1e0e64f4ae11</t>
-  </si>
-  <si>
     <t>browserstack.use_w3c</t>
   </si>
   <si>
-    <t>crypt:a83bd52131dfd84aa6d410ab8dfd5956262855ad37c317be</t>
-  </si>
-  <si>
     <t>browserstack</t>
   </si>
   <si>
@@ -337,6 +325,12 @@
   </si>
   <si>
     <t>iPhone X</t>
+  </si>
+  <si>
+    <t>DON'T FORGET TO ADD 'nexial.browserstack.username' AND 'nexial.browserstack.automatekey' TO DATASHEET OR JAVA_OPT</t>
+  </si>
+  <si>
+    <t>// NOTE !!!!</t>
   </si>
 </sst>
 </file>
@@ -475,7 +469,137 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1552,40 +1676,40 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1 A3:A9 A22:A1048576">
-    <cfRule type="beginsWith" dxfId="48" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="58" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="47" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="57" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="46" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="56" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B3:B9 B22:B1048576">
-    <cfRule type="expression" dxfId="45" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="44" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="54" priority="10">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="beginsWith" dxfId="43" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="53" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A2,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="42" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="52" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A2,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="41" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="51" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="40" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="39" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="5">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1596,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938A5DF5-858F-F04F-A650-D78F3893CC59}">
-  <dimension ref="A1:AAA36"/>
+  <dimension ref="A1:AAA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A13" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1836,15 +1960,15 @@
         <v>65</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>81</v>
+      <c r="B27" s="7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1852,68 +1976,60 @@
         <v>67</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="B31" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1921,53 +2037,72 @@
   <sortState ref="A1:B25">
     <sortCondition ref="A1:A25"/>
   </sortState>
-  <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="beginsWith" dxfId="38" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+  <conditionalFormatting sqref="A15:A34 A36:A1048576">
+    <cfRule type="beginsWith" dxfId="48" priority="14" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="37" priority="10" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="47" priority="15" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A15,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="36" priority="11" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="16" stopIfTrue="1">
       <formula>LEN(TRIM(A15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B1048576 B13:B14">
-    <cfRule type="expression" dxfId="35" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="B13:B14 B16:B34 B36:B1048576">
+    <cfRule type="expression" dxfId="45" priority="17" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="34" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="18">
       <formula>LEN(TRIM(B13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A13">
-    <cfRule type="beginsWith" dxfId="33" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="43" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="32" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="42" priority="10" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="31" priority="6" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="11" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13">
-    <cfRule type="expression" dxfId="30" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="12" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="29" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="13">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="beginsWith" dxfId="28" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="38" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A14,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="27" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="37" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A14,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="26" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(A14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A35,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A35,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A35))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
+      <formula>LEN(TRIM(B35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1977,10 +2112,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362E671B-3266-D74C-A30E-0914D60258CD}">
-  <dimension ref="A1:AAA35"/>
+  <dimension ref="A1:AAA34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A3" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2217,55 +2352,55 @@
         <v>65</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2273,74 +2408,85 @@
         <v>86</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="beginsWith" dxfId="25" priority="11" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+  <conditionalFormatting sqref="A15:A33 A35:A1048576">
+    <cfRule type="beginsWith" dxfId="35" priority="16" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="12" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="34" priority="17" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A15,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="23" priority="13" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="18" stopIfTrue="1">
       <formula>LEN(TRIM(A15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B14 B16:B1048576">
-    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
+  <conditionalFormatting sqref="B13:B14 B16:B33 B35:B1048576">
+    <cfRule type="expression" dxfId="32" priority="19" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="21" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="20">
       <formula>LEN(TRIM(B13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A13">
-    <cfRule type="beginsWith" dxfId="20" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="30" priority="11" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="29" priority="12" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="18" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13">
-    <cfRule type="expression" dxfId="17" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="14" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="16" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="15">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="beginsWith" dxfId="15" priority="3" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="25" priority="8" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A14,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="14" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="24" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A14,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="10" stopIfTrue="1">
       <formula>LEN(TRIM(A14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A34,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A34,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A34))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+      <formula>LEN(TRIM(B34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2350,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57C66B0-9463-6444-930B-B99E0CDBA23F}">
-  <dimension ref="A1:AAA35"/>
+  <dimension ref="A1:AAA34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2590,55 +2736,55 @@
         <v>65</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2646,73 +2792,65 @@
         <v>86</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="beginsWith" dxfId="12" priority="11" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="22" priority="11" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="11" priority="12" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="21" priority="12" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A15,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="10" priority="13" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(A15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B14 B16:B1048576">
-    <cfRule type="expression" dxfId="9" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="14" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="8" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="15">
       <formula>LEN(TRIM(B13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A13">
-    <cfRule type="beginsWith" dxfId="7" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="17" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="16" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13">
-    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="10">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="12" priority="3" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A14,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="11" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A14,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="5" stopIfTrue="1">
       <formula>LEN(TRIM(A14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/artifact/data/web-05.data.xlsx
+++ b/artifact/data/web-05.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDCB93E-8FF2-BB40-AF7C-A42D79303009}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB92BFC5-BEE3-814F-B1DA-DD9C946A6DE0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29000" yWindow="440" windowWidth="22200" windowHeight="17260" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="40500" windowHeight="17260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="119">
   <si>
     <t>true</t>
   </si>
@@ -81,9 +81,6 @@
     <t>nexial.openResult</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>nexial.scope.iteration</t>
   </si>
   <si>
@@ -255,36 +252,15 @@
     <t>nexial.browserstack.enablelocal</t>
   </si>
   <si>
-    <t>nexial.browserstack.browser</t>
-  </si>
-  <si>
     <t>Firefox</t>
   </si>
   <si>
-    <t>nexial.browserstack.browser.version</t>
-  </si>
-  <si>
     <t>nexial.browserstack.debug</t>
   </si>
   <si>
-    <t>nexial.browserstack.resolution</t>
-  </si>
-  <si>
     <t>1280x1024</t>
   </si>
   <si>
-    <t>nexial.browserstack.os</t>
-  </si>
-  <si>
-    <t>WINDOWS</t>
-  </si>
-  <si>
-    <t>nexial.browserstack.os.version</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>browserstack.use_w3c</t>
   </si>
   <si>
@@ -331,6 +307,108 @@
   </si>
   <si>
     <t>// NOTE !!!!</t>
+  </si>
+  <si>
+    <t>nexial.browser.windowSize</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>63.0 beta</t>
+  </si>
+  <si>
+    <t>70 beta</t>
+  </si>
+  <si>
+    <t>High Sierra</t>
+  </si>
+  <si>
+    <t>OS X</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>iPad 6th</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S9 Plus</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>Google Pixel 2</t>
+  </si>
+  <si>
+    <t>Motorola Moto x 2nd Gen</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Note 4</t>
+  </si>
+  <si>
+    <t>Google Nexus 9</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>nexial.scenarioRef.target</t>
+  </si>
+  <si>
+    <t>(empty)</t>
+  </si>
+  <si>
+    <t>browserstack.browser</t>
+  </si>
+  <si>
+    <t>browserstack.browser_version</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>nexial.web.pageLoadWaitMs</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>${browserstack.os} ${browserstack.os_version} ${browserstack.browser} ${browserstack.browser_version} ${browserstack.device}</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>B-E,G-O</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -469,7 +547,44 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -602,43 +717,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -704,6 +782,43 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -769,43 +884,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1061,6 +1139,43 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1523,12 +1638,12 @@
   <dimension ref="A1:AAA21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="27" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
     <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
@@ -1547,10 +1662,10 @@
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
@@ -1560,7 +1675,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="HA3" s="6"/>
       <c r="AAA3" s="6"/>
@@ -1607,7 +1722,7 @@
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
@@ -1617,17 +1732,21 @@
     </row>
     <row r="9" spans="1:703">
       <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
     <row r="10" spans="1:703">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="1:703">
       <c r="A11" s="3"/>
@@ -1676,41 +1795,52 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1 A3:A9 A22:A1048576">
-    <cfRule type="beginsWith" dxfId="58" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="61" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="57" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="60" priority="10" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="56" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="59" priority="11" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B3:B9 B22:B1048576">
-    <cfRule type="expression" dxfId="55" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="12" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="54" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="57" priority="13">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="beginsWith" dxfId="53" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="56" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A2,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="52" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="55" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A2,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="51" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="54" priority="6" stopIfTrue="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="50" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="7" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="49" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="52" priority="8">
       <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="beginsWith" dxfId="51" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A10,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="50" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A10,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="49" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1720,10 +1850,555 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938A5DF5-858F-F04F-A650-D78F3893CC59}">
-  <dimension ref="A1:AAA35"/>
+  <dimension ref="A1:AAA40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="32" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="26.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="HA2" s="6"/>
+      <c r="AAA2" s="6"/>
+    </row>
+    <row r="3" spans="1:703">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="HA3" s="6"/>
+      <c r="AAA3" s="6"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="1:703">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="1:703">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="HA7" s="4"/>
+      <c r="AAA7" s="5"/>
+    </row>
+    <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="HA8" s="4"/>
+      <c r="AAA8" s="5"/>
+    </row>
+    <row r="9" spans="1:703">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="HA9" s="4"/>
+      <c r="AAA9" s="5"/>
+    </row>
+    <row r="10" spans="1:703">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="HA10" s="4"/>
+      <c r="AAA10" s="5"/>
+    </row>
+    <row r="11" spans="1:703">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:703">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:703">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:703">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sortState ref="A1:B25">
+    <sortCondition ref="A1:A25"/>
+  </sortState>
+  <conditionalFormatting sqref="A38:A1048576 A15:A36">
+    <cfRule type="beginsWith" dxfId="48" priority="14" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="47" priority="15" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A15,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="46" priority="16" stopIfTrue="1">
+      <formula>LEN(TRIM(A15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:B14 B16:B36 B39:B1048576 C38">
+    <cfRule type="expression" dxfId="45" priority="17" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="44" priority="18">
+      <formula>LEN(TRIM(B13))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A13">
+    <cfRule type="beginsWith" dxfId="43" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="42" priority="10" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="41" priority="11" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B13">
+    <cfRule type="expression" dxfId="40" priority="12" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="39" priority="13">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="beginsWith" dxfId="38" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A14,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="37" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A14,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="36" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(A14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="beginsWith" dxfId="35" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A37,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="34" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A37,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="33" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A37))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="32" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="31" priority="5">
+      <formula>LEN(TRIM(B37))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362E671B-3266-D74C-A30E-0914D60258CD}">
+  <dimension ref="A1:AAA34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:B35"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1737,372 +2412,364 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="HA3" s="6"/>
       <c r="AAA3" s="6"/>
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
     <row r="9" spans="1:703">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
     <row r="10" spans="1:703">
       <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="HA10" s="4"/>
       <c r="AAA10" s="5"/>
     </row>
     <row r="11" spans="1:703">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:703">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:703">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:703">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:703">
       <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:703">
       <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <sortState ref="A1:B25">
-    <sortCondition ref="A1:A25"/>
-  </sortState>
-  <conditionalFormatting sqref="A15:A34 A36:A1048576">
-    <cfRule type="beginsWith" dxfId="48" priority="14" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+  <conditionalFormatting sqref="A15:A33 A35:A1048576">
+    <cfRule type="beginsWith" dxfId="30" priority="16" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="47" priority="15" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="29" priority="17" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A15,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="46" priority="16" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="18" stopIfTrue="1">
       <formula>LEN(TRIM(A15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B14 B16:B34 B36:B1048576">
-    <cfRule type="expression" dxfId="45" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="B13:B14 B16:B33 B35:B1048576">
+    <cfRule type="expression" dxfId="27" priority="19" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="44" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="20">
       <formula>LEN(TRIM(B13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A13">
-    <cfRule type="beginsWith" dxfId="43" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="25" priority="11" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="42" priority="10" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="24" priority="12" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="41" priority="11" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13">
-    <cfRule type="expression" dxfId="40" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="39" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="15">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="beginsWith" dxfId="38" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="20" priority="8" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A14,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="37" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="19" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A14,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="36" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="10" stopIfTrue="1">
       <formula>LEN(TRIM(A14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
-      <formula>LEFT(A35,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
-      <formula>LEFT(A35,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>LEN(TRIM(A35))&gt;0</formula>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="beginsWith" dxfId="17" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A34,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="16" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A34,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="15" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
-      <formula>LEN(TRIM(B35))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="13" priority="5">
+      <formula>LEN(TRIM(B34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2110,12 +2777,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362E671B-3266-D74C-A30E-0914D60258CD}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57C66B0-9463-6444-930B-B99E0CDBA23F}">
   <dimension ref="A1:AAA34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:B34"/>
+    <sheetView topLeftCell="A11" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2129,235 +2796,235 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="HA3" s="6"/>
       <c r="AAA3" s="6"/>
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
     <row r="9" spans="1:703">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
     <row r="10" spans="1:703">
       <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="HA10" s="4"/>
       <c r="AAA10" s="5"/>
     </row>
     <row r="11" spans="1:703">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:703">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:703">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:703">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:703">
       <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:703">
       <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>0</v>
@@ -2365,7 +3032,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
@@ -2373,7 +3040,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>2</v>
@@ -2381,7 +3048,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>80</v>
@@ -2389,23 +3056,23 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>0</v>
@@ -2413,444 +3080,60 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <conditionalFormatting sqref="A15:A33 A35:A1048576">
-    <cfRule type="beginsWith" dxfId="35" priority="16" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
-      <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="34" priority="17" stopIfTrue="1" operator="beginsWith" text="nexial.">
-      <formula>LEFT(A15,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="33" priority="18" stopIfTrue="1">
-      <formula>LEN(TRIM(A15))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B14 B16:B33 B35:B1048576">
-    <cfRule type="expression" dxfId="32" priority="19" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="31" priority="20">
-      <formula>LEN(TRIM(B13))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A13">
-    <cfRule type="beginsWith" dxfId="30" priority="11" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
-      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="29" priority="12" stopIfTrue="1" operator="beginsWith" text="nexial.">
-      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="28" priority="13" stopIfTrue="1">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B13">
-    <cfRule type="expression" dxfId="27" priority="14" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="26" priority="15">
-      <formula>LEN(TRIM(B1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="beginsWith" dxfId="25" priority="8" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
-      <formula>LEFT(A14,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.">
-      <formula>LEFT(A14,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="23" priority="10" stopIfTrue="1">
-      <formula>LEN(TRIM(A14))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
-      <formula>LEFT(A34,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
-      <formula>LEFT(A34,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
-      <formula>LEN(TRIM(A34))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
-      <formula>LEN(TRIM(B34))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57C66B0-9463-6444-930B-B99E0CDBA23F}">
-  <dimension ref="A1:AAA34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:B34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="32" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="103.1640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:703">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="HA1" s="6"/>
-      <c r="AAA1" s="6"/>
-    </row>
-    <row r="2" spans="1:703">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="HA2" s="6"/>
-      <c r="AAA2" s="6"/>
-    </row>
-    <row r="3" spans="1:703">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="HA3" s="6"/>
-      <c r="AAA3" s="6"/>
-    </row>
-    <row r="4" spans="1:703">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="HA4" s="4"/>
-      <c r="AAA4" s="5"/>
-    </row>
-    <row r="5" spans="1:703">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="HA5" s="4"/>
-      <c r="AAA5" s="5"/>
-    </row>
-    <row r="6" spans="1:703">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="HA6" s="4"/>
-      <c r="AAA6" s="5"/>
-    </row>
-    <row r="7" spans="1:703">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="HA7" s="4"/>
-      <c r="AAA7" s="5"/>
-    </row>
-    <row r="8" spans="1:703">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="HA8" s="4"/>
-      <c r="AAA8" s="5"/>
-    </row>
-    <row r="9" spans="1:703">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="HA9" s="4"/>
-      <c r="AAA9" s="5"/>
-    </row>
-    <row r="10" spans="1:703">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="HA10" s="4"/>
-      <c r="AAA10" s="5"/>
-    </row>
-    <row r="11" spans="1:703">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:703">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:703">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:703">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:703">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:703">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="beginsWith" dxfId="22" priority="11" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="12" priority="11" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="21" priority="12" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="11" priority="12" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A15,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="20" priority="13" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(A15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B14 B16:B1048576">
-    <cfRule type="expression" dxfId="19" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="14" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="18" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="15">
       <formula>LEN(TRIM(B13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A13">
-    <cfRule type="beginsWith" dxfId="17" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="7" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="6" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="15" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13">
-    <cfRule type="expression" dxfId="14" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="13" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="10">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="beginsWith" dxfId="12" priority="3" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A14,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="11" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="1" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A14,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="10" priority="5" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5" stopIfTrue="1">
       <formula>LEN(TRIM(A14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/artifact/data/web-05.data.xlsx
+++ b/artifact/data/web-05.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB92BFC5-BEE3-814F-B1DA-DD9C946A6DE0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95733686-C925-9F43-8654-BA15F52AA33F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="40500" windowHeight="17260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="40500" windowHeight="27260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -52,35 +52,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="112">
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
   <si>
-    <t>nexial.pollWaitMs</t>
-  </si>
-  <si>
-    <t>nexial.failFast</t>
-  </si>
-  <si>
-    <t>nexial.textDelim</t>
-  </si>
-  <si>
-    <t>nexial.verbose</t>
-  </si>
-  <si>
-    <t>nexial.openResult</t>
-  </si>
-  <si>
     <t>nexial.scope.iteration</t>
   </si>
   <si>
@@ -388,9 +370,6 @@
   </si>
   <si>
     <t>browserstack.browser_version</t>
-  </si>
-  <si>
-    <t>800</t>
   </si>
   <si>
     <t>nexial.web.pageLoadWaitMs</t>
@@ -1635,11 +1614,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA21"/>
+  <dimension ref="A1:AAA34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -1650,9 +1627,9 @@
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
+    <row r="1" spans="1:703" ht="23" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1660,141 +1637,109 @@
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703">
+    <row r="2" spans="1:703" ht="23" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703">
+    <row r="3" spans="1:703" ht="23" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="HA3" s="6"/>
-      <c r="AAA3" s="6"/>
-    </row>
-    <row r="4" spans="1:703">
+        <v>0</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
+    </row>
+    <row r="4" spans="1:703" ht="23" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
-    <row r="5" spans="1:703">
+    <row r="5" spans="1:703" ht="23" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="HA5" s="4"/>
-      <c r="AAA5" s="5"/>
-    </row>
-    <row r="6" spans="1:703">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="HA6" s="4"/>
-      <c r="AAA6" s="5"/>
-    </row>
-    <row r="7" spans="1:703">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="HA7" s="4"/>
-      <c r="AAA7" s="5"/>
-    </row>
-    <row r="8" spans="1:703">
-      <c r="A8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="HA8" s="4"/>
-      <c r="AAA8" s="5"/>
-    </row>
-    <row r="9" spans="1:703">
-      <c r="A9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="HA9" s="4"/>
-      <c r="AAA9" s="5"/>
-    </row>
-    <row r="10" spans="1:703">
-      <c r="A10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:703">
+        <v>106</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:703" ht="23" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:703" ht="23" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:703" ht="23" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:703" ht="23" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:703" ht="23" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:703" ht="23" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:703">
+    <row r="12" spans="1:703" ht="23" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:703">
+    <row r="13" spans="1:703" ht="23" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:703">
+    <row r="14" spans="1:703" ht="23" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:703">
+    <row r="15" spans="1:703" ht="23" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:703">
+    <row r="16" spans="1:703" ht="23" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-    </row>
+    <row r="17" ht="23" customHeight="1"/>
+    <row r="18" ht="23" customHeight="1"/>
+    <row r="19" ht="23" customHeight="1"/>
+    <row r="20" ht="23" customHeight="1"/>
+    <row r="21" ht="23" customHeight="1"/>
+    <row r="22" ht="23" customHeight="1"/>
+    <row r="23" ht="23" customHeight="1"/>
+    <row r="24" ht="23" customHeight="1"/>
+    <row r="25" ht="23" customHeight="1"/>
+    <row r="26" ht="23" customHeight="1"/>
+    <row r="27" ht="23" customHeight="1"/>
+    <row r="28" ht="23" customHeight="1"/>
+    <row r="29" ht="23" customHeight="1"/>
+    <row r="30" ht="23" customHeight="1"/>
+    <row r="31" ht="23" customHeight="1"/>
+    <row r="32" ht="23" customHeight="1"/>
+    <row r="33" ht="23" customHeight="1"/>
+    <row r="34" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <conditionalFormatting sqref="A1 A3:A9 A22:A1048576">
+  <conditionalFormatting sqref="A1 A17:A1048576 A3:A4">
     <cfRule type="beginsWith" dxfId="61" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
@@ -1805,7 +1750,7 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1 B3:B9 B22:B1048576">
+  <conditionalFormatting sqref="B1 B17:B1048576 B3:B4">
     <cfRule type="expression" dxfId="58" priority="12" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
@@ -1832,15 +1777,15 @@
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="A5">
     <cfRule type="beginsWith" dxfId="51" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
-      <formula>LEFT(A10,LEN("nexial.scope."))="nexial.scope."</formula>
+      <formula>LEFT(A5,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="50" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
-      <formula>LEFT(A10,LEN("nexial."))="nexial."</formula>
+      <formula>LEFT(A5,LEN("nexial."))="nexial."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="49" priority="3" stopIfTrue="1">
-      <formula>LEN(TRIM(A10))&gt;0</formula>
+      <formula>LEN(TRIM(A5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1850,15 +1795,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938A5DF5-858F-F04F-A650-D78F3893CC59}">
-  <dimension ref="A1:AAA40"/>
+  <dimension ref="A1:AAA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="32" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
@@ -1870,454 +1813,464 @@
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
+    <row r="1" spans="1:703" ht="23" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703">
+    <row r="2" spans="1:703" ht="23" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703">
+    <row r="3" spans="1:703" ht="23" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="HA3" s="6"/>
       <c r="AAA3" s="6"/>
     </row>
-    <row r="4" spans="1:703">
+    <row r="4" spans="1:703" ht="23" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
-    <row r="5" spans="1:703">
+    <row r="5" spans="1:703" ht="23" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="1:703">
+    <row r="6" spans="1:703" ht="23" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703">
+    <row r="7" spans="1:703" ht="23" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
-    <row r="8" spans="1:703">
+    <row r="8" spans="1:703" ht="23" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
-    <row r="9" spans="1:703">
+    <row r="9" spans="1:703" ht="23" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
-    <row r="10" spans="1:703">
+    <row r="10" spans="1:703" ht="23" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="HA10" s="4"/>
       <c r="AAA10" s="5"/>
     </row>
-    <row r="11" spans="1:703">
+    <row r="11" spans="1:703" ht="23" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:703">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:703" ht="23" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:703" ht="23" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703" ht="23" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703" ht="23" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:703" ht="23" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="23" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="23" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="23" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="23" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="23" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="23" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:703">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:703">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:703">
-      <c r="A15" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="23" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="23" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="23" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:703">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="26" spans="1:11" ht="23" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="23" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="B27" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="23" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" ht="23" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="23" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="23" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="23" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="23" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="D33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="23" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="K34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K32" s="3" t="s">
+      <c r="N34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="23" customHeight="1">
+      <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="B35" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" ht="23" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" ht="23" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="23" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="23" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" ht="23" customHeight="1">
       <c r="A40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
+    </row>
+    <row r="41" spans="1:15" ht="23" customHeight="1"/>
+    <row r="42" spans="1:15" ht="23" customHeight="1"/>
+    <row r="43" spans="1:15" ht="23" customHeight="1"/>
+    <row r="44" spans="1:15" ht="23" customHeight="1"/>
+    <row r="45" spans="1:15" ht="23" customHeight="1"/>
+    <row r="46" spans="1:15" ht="23" customHeight="1"/>
+    <row r="47" spans="1:15" ht="23" customHeight="1"/>
+    <row r="48" spans="1:15" ht="23" customHeight="1"/>
+    <row r="49" ht="23" customHeight="1"/>
+    <row r="50" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <sortState ref="A1:B25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B25">
     <sortCondition ref="A1:A25"/>
   </sortState>
   <conditionalFormatting sqref="A38:A1048576 A15:A36">
@@ -2395,11 +2348,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362E671B-3266-D74C-A30E-0914D60258CD}">
-  <dimension ref="A1:AAA34"/>
+  <dimension ref="A1:AAA50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -2410,298 +2361,314 @@
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
+    <row r="1" spans="1:703" ht="23" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703">
+    <row r="2" spans="1:703" ht="23" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703">
+    <row r="3" spans="1:703" ht="23" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="HA3" s="6"/>
       <c r="AAA3" s="6"/>
     </row>
-    <row r="4" spans="1:703">
+    <row r="4" spans="1:703" ht="23" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
-    <row r="5" spans="1:703">
+    <row r="5" spans="1:703" ht="23" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="1:703">
+    <row r="6" spans="1:703" ht="23" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703">
+    <row r="7" spans="1:703" ht="23" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
-    <row r="8" spans="1:703">
+    <row r="8" spans="1:703" ht="23" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
-    <row r="9" spans="1:703">
+    <row r="9" spans="1:703" ht="23" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
-    <row r="10" spans="1:703">
+    <row r="10" spans="1:703" ht="23" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="HA10" s="4"/>
       <c r="AAA10" s="5"/>
     </row>
-    <row r="11" spans="1:703">
+    <row r="11" spans="1:703" ht="23" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:703">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:703" ht="23" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:703" ht="23" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703" ht="23" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703" ht="23" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:703" ht="23" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="23" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="23" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="23" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="23" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="23" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="23" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:703">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:703">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:703">
-      <c r="A15" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="23" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="23" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="23" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:703">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="23" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+    </row>
+    <row r="27" spans="1:2" ht="23" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" ht="23" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" ht="23" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="23" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="23" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="23" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="23" customHeight="1">
+      <c r="A33" s="1" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" ht="23" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="23" customHeight="1"/>
+    <row r="36" spans="1:2" ht="23" customHeight="1"/>
+    <row r="37" spans="1:2" ht="23" customHeight="1"/>
+    <row r="38" spans="1:2" ht="23" customHeight="1"/>
+    <row r="39" spans="1:2" ht="23" customHeight="1"/>
+    <row r="40" spans="1:2" ht="23" customHeight="1"/>
+    <row r="41" spans="1:2" ht="23" customHeight="1"/>
+    <row r="42" spans="1:2" ht="23" customHeight="1"/>
+    <row r="43" spans="1:2" ht="23" customHeight="1"/>
+    <row r="44" spans="1:2" ht="23" customHeight="1"/>
+    <row r="45" spans="1:2" ht="23" customHeight="1"/>
+    <row r="46" spans="1:2" ht="23" customHeight="1"/>
+    <row r="47" spans="1:2" ht="23" customHeight="1"/>
+    <row r="48" spans="1:2" ht="23" customHeight="1"/>
+    <row r="49" ht="23" customHeight="1"/>
+    <row r="50" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A15:A33 A35:A1048576">
@@ -2779,11 +2746,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57C66B0-9463-6444-930B-B99E0CDBA23F}">
-  <dimension ref="A1:AAA34"/>
+  <dimension ref="A1:AAA50"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -2794,298 +2759,314 @@
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
+    <row r="1" spans="1:703" ht="23" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703">
+    <row r="2" spans="1:703" ht="23" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703">
+    <row r="3" spans="1:703" ht="23" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="HA3" s="6"/>
       <c r="AAA3" s="6"/>
     </row>
-    <row r="4" spans="1:703">
+    <row r="4" spans="1:703" ht="23" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
-    <row r="5" spans="1:703">
+    <row r="5" spans="1:703" ht="23" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="1:703">
+    <row r="6" spans="1:703" ht="23" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703">
+    <row r="7" spans="1:703" ht="23" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
-    <row r="8" spans="1:703">
+    <row r="8" spans="1:703" ht="23" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
-    <row r="9" spans="1:703">
+    <row r="9" spans="1:703" ht="23" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
-    <row r="10" spans="1:703">
+    <row r="10" spans="1:703" ht="23" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="HA10" s="4"/>
       <c r="AAA10" s="5"/>
     </row>
-    <row r="11" spans="1:703">
+    <row r="11" spans="1:703" ht="23" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:703">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:703" ht="23" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:703" ht="23" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703" ht="23" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703" ht="23" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:703" ht="23" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="23" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="23" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="23" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="23" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="23" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="23" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:703">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:703">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:703">
-      <c r="A15" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="23" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="23" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="23" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:703">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="23" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+    </row>
+    <row r="27" spans="1:2" ht="23" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" ht="23" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" ht="23" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="23" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="23" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="23" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+    </row>
+    <row r="33" spans="1:2" ht="23" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" ht="23" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="23" customHeight="1"/>
+    <row r="36" spans="1:2" ht="23" customHeight="1"/>
+    <row r="37" spans="1:2" ht="23" customHeight="1"/>
+    <row r="38" spans="1:2" ht="23" customHeight="1"/>
+    <row r="39" spans="1:2" ht="23" customHeight="1"/>
+    <row r="40" spans="1:2" ht="23" customHeight="1"/>
+    <row r="41" spans="1:2" ht="23" customHeight="1"/>
+    <row r="42" spans="1:2" ht="23" customHeight="1"/>
+    <row r="43" spans="1:2" ht="23" customHeight="1"/>
+    <row r="44" spans="1:2" ht="23" customHeight="1"/>
+    <row r="45" spans="1:2" ht="23" customHeight="1"/>
+    <row r="46" spans="1:2" ht="23" customHeight="1"/>
+    <row r="47" spans="1:2" ht="23" customHeight="1"/>
+    <row r="48" spans="1:2" ht="23" customHeight="1"/>
+    <row r="49" ht="23" customHeight="1"/>
+    <row r="50" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A15:A1048576">
